--- a/tree/data.xlsx
+++ b/tree/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="170">
   <si>
     <t>Calc</t>
   </si>
@@ -327,6 +327,213 @@
   </si>
   <si>
     <t>fa</t>
+  </si>
+  <si>
+    <t>hirasawa_mom</t>
+  </si>
+  <si>
+    <t>hirasawa_dad</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/32/ea/8f/32ea8fdd6cbe5fffee5d995df352d9d4.png</t>
+  </si>
+  <si>
+    <t>yuis_and_uis_mother</t>
+  </si>
+  <si>
+    <t>yuis_and_uis_father</t>
+  </si>
+  <si>
+    <t>himesaka_parent</t>
+  </si>
+  <si>
+    <t>Hirasawa</t>
+  </si>
+  <si>
+    <t>Yui</t>
+  </si>
+  <si>
+    <t>hirasawa_yui</t>
+  </si>
+  <si>
+    <t>nakano_azusa</t>
+  </si>
+  <si>
+    <t>http://images4.fanpop.com/image/photos/16500000/Yui-Hirasawa-yui-hirasawa-16561913-1280-1024.jpg</t>
+  </si>
+  <si>
+    <t>Ui</t>
+  </si>
+  <si>
+    <t>hirasawa_ui</t>
+  </si>
+  <si>
+    <t>suzuki_jun</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/8b/e0/81/8be0815a652fdd4e878d96859d27767a.jpg</t>
+  </si>
+  <si>
+    <t>Chitose</t>
+  </si>
+  <si>
+    <t>hirasawa_chitose</t>
+  </si>
+  <si>
+    <t>https://www.anime-planet.com/images/characters/chitose-ikeda-27517.jpg</t>
+  </si>
+  <si>
+    <t>ikeda_chitose</t>
+  </si>
+  <si>
+    <t>hirasawa_chizuru</t>
+  </si>
+  <si>
+    <t>https://pm1.narvii.com/6547/7d088bfd998c101aeea58bd4a6b7cda33042e1c2_hq.jpg</t>
+  </si>
+  <si>
+    <t>ikeda_chizuru</t>
+  </si>
+  <si>
+    <t>Nakano</t>
+  </si>
+  <si>
+    <t>Azusa</t>
+  </si>
+  <si>
+    <t>https://yt3.ggpht.com/a/AATXAJzxozkF5h8iA4575nDe33tDUiv-0K2veSw4Zw=s900-c-k-c0xffffffff-no-rj-mo</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fstatici.behindthevoiceactors.com%2Fbehindthevoiceactors%2F_img%2Fchars%2Fjun-suzuki-k-on-9.1.jpg&amp;f=1&amp;nofb=1</t>
+  </si>
+  <si>
+    <t>suzuki_parent</t>
+  </si>
+  <si>
+    <t>Hajime</t>
+  </si>
+  <si>
+    <t>suzuki_hajime</t>
+  </si>
+  <si>
+    <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fstatici.behindthevoiceactors.com%2Fbehindthevoiceactors%2F_img%2Fchars%2Fsuzuki-bakuman-42.2.jpg&amp;f=1&amp;nofb=1</t>
+  </si>
+  <si>
+    <t>Mashiro</t>
+  </si>
+  <si>
+    <t>Moritaka</t>
+  </si>
+  <si>
+    <t>mashiro_moritaka</t>
+  </si>
+  <si>
+    <t>azuki_miho</t>
+  </si>
+  <si>
+    <t>mashiro_kayoko</t>
+  </si>
+  <si>
+    <t>mashiro_masahiro</t>
+  </si>
+  <si>
+    <t>http://ami.animecharactersdatabase.com/images/2496/Moritaka_Mashiro.jpg</t>
+  </si>
+  <si>
+    <t>Kayoko</t>
+  </si>
+  <si>
+    <t>https://64.media.tumblr.com/tumblr_lsyyndsiDy1qi70w1o1_400.jpg</t>
+  </si>
+  <si>
+    <t>Masahiro</t>
+  </si>
+  <si>
+    <t>https://yt3.ggpht.com/a/AATXAJzM_PnJMktMpJCep8hzB-T40TgV-3E11M8fkg=s900-c-k-c0xffffffff-no-rj-mo</t>
+  </si>
+  <si>
+    <t>Fumi</t>
+  </si>
+  <si>
+    <t>mashiro_fumi</t>
+  </si>
+  <si>
+    <t>https://s4.anilist.co/file/anilistcdn/character/large/b37582-Fb3BtshWduiA.png</t>
+  </si>
+  <si>
+    <t>Nobuhiro</t>
+  </si>
+  <si>
+    <t>mashiro_nobuhiro</t>
+  </si>
+  <si>
+    <t>http://ftpmirror.your.org/pub/wikimedia/images/wikipedia/pt/e/e1/Mashiro_Nobuhiro.jpg</t>
+  </si>
+  <si>
+    <t>Azuki</t>
+  </si>
+  <si>
+    <t>Miho</t>
+  </si>
+  <si>
+    <t>haruno_miyuki</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-R7hsROBhhGA/TZpCP16kKPI/AAAAAAAAAV8/UOpEALONTyY/s1600/Miho+Azuki.jpg</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>azuki_mina</t>
+  </si>
+  <si>
+    <t>https://cdn.anisearch.de/images/character/cover/full/18/18488.jpg</t>
+  </si>
+  <si>
+    <t>Haruno</t>
+  </si>
+  <si>
+    <t>Miyuki</t>
+  </si>
+  <si>
+    <t>https://thicc.mywaifulist.moe/waifus/7661/b33d9c7a85df8fd6428b4bba51cd817af919461ecd172d39bdb06d4e2e4a4bed_thumb.jpeg</t>
+  </si>
+  <si>
+    <t>haruno_parent</t>
+  </si>
+  <si>
+    <t>himes_parent</t>
+  </si>
+  <si>
+    <t>Hime</t>
+  </si>
+  <si>
+    <t>haruno_hime</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-8ctzJMuOWlw/U6wu3P-exSI/AAAAAAAAAi8/aFDHVrJGAGQ/s1600/hime.png</t>
+  </si>
+  <si>
+    <t>aoyamas_parent</t>
+  </si>
+  <si>
+    <t>Aoyama</t>
+  </si>
+  <si>
+    <t>Midori</t>
+  </si>
+  <si>
+    <t>aoyama_midori</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/E2e-7sAXIAwR461.jpg</t>
   </si>
 </sst>
 </file>
@@ -374,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,8 +595,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,19 +884,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="A54:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -692,11 +905,11 @@
     <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -740,10 +953,10 @@
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -758,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="3" t="str">
-        <f t="shared" ref="P2:P29" si="0">"{fname:'"&amp;A2&amp;"',gname:'"&amp;B2&amp;"',id:'"&amp;C2&amp;"',gender:'"&amp;D2&amp;"',partners:'"&amp;K2&amp;"',mid:'"&amp;L2&amp;"',fid:'"&amp;M2&amp;"',onlineImg:'"&amp;N2&amp;"',localImg:'"&amp;O2&amp;"',bday:'"&amp;E2&amp;"',bmonth:'"&amp;F2&amp;"',byear:'"&amp;G2&amp;"',dday:'"&amp;H2&amp;"',dmonth:'"&amp;I2&amp;"',dyear:'"&amp;J2&amp;"'},"</f>
+        <f t="shared" ref="P2:P53" si="0">"{fname:'"&amp;A2&amp;"',gname:'"&amp;B2&amp;"',id:'"&amp;C2&amp;"',gender:'"&amp;D2&amp;"',partners:'"&amp;K2&amp;"',mid:'"&amp;L2&amp;"',fid:'"&amp;M2&amp;"',onlineImg:'"&amp;N2&amp;"',localImg:'"&amp;O2&amp;"',bday:'"&amp;E2&amp;"',bmonth:'"&amp;F2&amp;"',byear:'"&amp;G2&amp;"',dday:'"&amp;H2&amp;"',dmonth:'"&amp;I2&amp;"',dyear:'"&amp;J2&amp;"'},"</f>
         <v>{fname:'',gname:'',id:'akiyama_dad',gender:'male',partners:'',mid:'',fid:'',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
       </c>
     </row>
@@ -790,10 +1003,10 @@
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P3" s="3" t="str">
@@ -829,10 +1042,10 @@
       <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P4" s="3" t="str">
@@ -865,10 +1078,10 @@
       <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="3" t="str">
@@ -901,10 +1114,10 @@
       <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="3" t="str">
@@ -943,10 +1156,10 @@
       <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P7" s="3" t="str">
@@ -997,10 +1210,10 @@
       <c r="M9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="P9" s="3" t="str">
@@ -1027,15 +1240,18 @@
       <c r="K10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{fname:'Himesaka',gname:'Emily',id:'himesaka_emily',gender:'female',partners:'hinata_dad',mid:'',fid:'',onlineImg:'https://i.pinimg.com/236x/e7/89/6d/e7896d6fc0765d37f4662c5a0b3e5d13.jpg?nii=t',localImg:'himesaka_emily',bday:'',bmonth:'',byear:'1984',dday:'',dmonth:'',dyear:''},</v>
+        <v>{fname:'Himesaka',gname:'Emily',id:'himesaka_emily',gender:'female',partners:'hinata_dad',mid:'',fid:'himesaka_parent',onlineImg:'https://i.pinimg.com/236x/e7/89/6d/e7896d6fc0765d37f4662c5a0b3e5d13.jpg?nii=t',localImg:'himesaka_emily',bday:'',bmonth:'',byear:'1984',dday:'',dmonth:'',dyear:''},</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1066,10 +1282,10 @@
       <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="P11" s="3" t="str">
@@ -1097,10 +1313,10 @@
       <c r="M12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P12" s="3" t="str">
@@ -1127,10 +1343,10 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="P14" s="3" t="str">
@@ -1178,10 +1394,10 @@
       <c r="M16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="3" t="str">
@@ -1229,10 +1445,10 @@
       <c r="M18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="5" t="s">
         <v>67</v>
       </c>
       <c r="P18" s="3" t="str">
@@ -1268,10 +1484,10 @@
       <c r="M19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="P19" s="3" t="str">
@@ -1313,10 +1529,10 @@
       <c r="M21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="P21" s="3" t="str">
@@ -1352,10 +1568,10 @@
       <c r="L22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="P22" s="3" t="str">
@@ -1391,10 +1607,10 @@
       <c r="L23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="P23" s="3" t="str">
@@ -1424,10 +1640,10 @@
       <c r="G24" s="1">
         <v>1981</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P24" s="3" t="str">
@@ -1460,10 +1676,10 @@
       <c r="M25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="5" t="s">
         <v>100</v>
       </c>
       <c r="P25" s="3" t="str">
@@ -1499,10 +1715,10 @@
       <c r="M26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="P26" s="3" t="str">
@@ -1535,10 +1751,10 @@
       <c r="M27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="P27" s="3" t="str">
@@ -1571,10 +1787,10 @@
       <c r="M28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="5" t="s">
         <v>96</v>
       </c>
       <c r="P28" s="3" t="str">
@@ -1591,8 +1807,702 @@
         <v>{fname:'',gname:'',id:'matsumoto_parent',gender:'',partners:'',mid:'',fid:'',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'hirasawa_mom',gender:'female',partners:'hirasawa_dad',mid:'',fid:'himesaka_parent',onlineImg:'https://i.pinimg.com/originals/32/ea/8f/32ea8fdd6cbe5fffee5d995df352d9d4.png',localImg:'yuis_and_uis_mother',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'hirasawa_dad',gender:'male',partners:'hirasawa_mom',mid:'',fid:'',onlineImg:'',localImg:'yuis_and_uis_father',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'himesaka_parent',gender:'',partners:'',mid:'',fid:'',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2003</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Hirasawa',gname:'Yui',id:'hirasawa_yui',gender:'female',partners:'nakano_azusa',mid:'hirasawa_mom',fid:'hirasawa_dad',onlineImg:'http://images4.fanpop.com/image/photos/16500000/Yui-Hirasawa-yui-hirasawa-16561913-1280-1024.jpg',localImg:'hirasawa_yui',bday:'27',bmonth:'11',byear:'2003',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Hirasawa',gname:'Ui',id:'hirasawa_ui',gender:'female',partners:'suzuki_jun',mid:'hirasawa_mom',fid:'hirasawa_dad',onlineImg:'https://i.pinimg.com/736x/8b/e0/81/8be0815a652fdd4e878d96859d27767a.jpg',localImg:'hirasawa_ui',bday:'22',bmonth:'2',byear:'2005',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Hirasawa',gname:'Chitose',id:'hirasawa_chitose',gender:'female',partners:'',mid:'hirasawa_mom',fid:'hirasawa_dad',onlineImg:'https://www.anime-planet.com/images/characters/chitose-ikeda-27517.jpg',localImg:'ikeda_chitose',bday:'10',bmonth:'3',byear:'2006',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Hirasawa',gname:'Chizuru',id:'hirasawa_chizuru',gender:'female',partners:'',mid:'hirasawa_mom',fid:'hirasawa_dad',onlineImg:'https://pm1.narvii.com/6547/7d088bfd998c101aeea58bd4a6b7cda33042e1c2_hq.jpg',localImg:'ikeda_chizuru',bday:'10',bmonth:'3',byear:'2006',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Nakano',gname:'Azusa',id:'nakano_azusa',gender:'female',partners:'hirasawa_yui',mid:'',fid:'',onlineImg:'https://yt3.ggpht.com/a/AATXAJzxozkF5h8iA4575nDe33tDUiv-0K2veSw4Zw=s900-c-k-c0xffffffff-no-rj-mo',localImg:'nakano_azusa',bday:'11',bmonth:'11',byear:'2004',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Suzuki',gname:'Jun',id:'suzuki_jun',gender:'female',partners:'hirasawa_ui',mid:'',fid:'suzuki_parent',onlineImg:'https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fstatici.behindthevoiceactors.com%2Fbehindthevoiceactors%2F_img%2Fchars%2Fjun-suzuki-k-on-9.1.jpg&amp;f=1&amp;nofb=1',localImg:'suzuki_jun',bday:'8',bmonth:'4',byear:'2004',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D39" s="4"/>
+      <c r="P39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'suzuki_parent',gender:'',partners:'',mid:'',fid:'',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1994</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Suzuki',gname:'Hajime',id:'suzuki_hajime',gender:'male',partners:'',mid:'',fid:'suzuki_parent',onlineImg:'https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fstatici.behindthevoiceactors.com%2Fbehindthevoiceactors%2F_img%2Fchars%2Fsuzuki-bakuman-42.2.jpg&amp;f=1&amp;nofb=1',localImg:'suzuki_hajime',bday:'',bmonth:'',byear:'1994',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>18</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1994</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Mashiro',gname:'Moritaka',id:'mashiro_moritaka',gender:'male',partners:'azuki_miho',mid:'mashiro_kayoko',fid:'mashiro_masahiro',onlineImg:'http://ami.animecharactersdatabase.com/images/2496/Moritaka_Mashiro.jpg',localImg:'mashiro_moritaka',bday:'18',bmonth:'2',byear:'1994',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Mashiro',gname:'Kayoko',id:'mashiro_kayoko',gender:'female',partners:'mashiro_masahiro',mid:'',fid:'',onlineImg:'https://64.media.tumblr.com/tumblr_lsyyndsiDy1qi70w1o1_400.jpg',localImg:'mashiro_kayoko',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1970</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Mashiro',gname:'Masahiro',id:'mashiro_masahiro',gender:'male',partners:'mashiro_kayoko',mid:'',fid:'mashiro_fumi',onlineImg:'https://yt3.ggpht.com/a/AATXAJzM_PnJMktMpJCep8hzB-T40TgV-3E11M8fkg=s900-c-k-c0xffffffff-no-rj-mo',localImg:'mashiro_masahiro',bday:'3',bmonth:'8',byear:'1970',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Mashiro',gname:'Fumi',id:'mashiro_fumi',gender:'male',partners:'',mid:'',fid:'',onlineImg:'https://s4.anilist.co/file/anilistcdn/character/large/b37582-Fb3BtshWduiA.png',localImg:'mashiro_fumi',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1962</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2006</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Mashiro',gname:'Nobuhiro',id:'mashiro_nobuhiro',gender:'male',partners:'',mid:'',fid:'mashiro_fumi',onlineImg:'http://ftpmirror.your.org/pub/wikimedia/images/wikipedia/pt/e/e1/Mashiro_Nobuhiro.jpg',localImg:'mashiro_nobuhiro',bday:'',bmonth:'',byear:'1962',dday:'',dmonth:'',dyear:'2006'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1993</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Azuki',gname:'Miho',id:'azuki_miho',gender:'female',partners:'mashiro_moritaka',mid:'haruno_miyuki',fid:'',onlineImg:'https://2.bp.blogspot.com/-R7hsROBhhGA/TZpCP16kKPI/AAAAAAAAAV8/UOpEALONTyY/s1600/Miho+Azuki.jpg',localImg:'azuki_miho',bday:'5',bmonth:'11',byear:'1993',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1999</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Azuki',gname:'Mina',id:'azuki_mina',gender:'female',partners:'',mid:'haruno_miyuki',fid:'',onlineImg:'https://cdn.anisearch.de/images/character/cover/full/18/18488.jpg',localImg:'azuki_mina',bday:'',bmonth:'',byear:'1999',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1963</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Haruno',gname:'Miyuki',id:'haruno_miyuki',gender:'female',partners:'',mid:'',fid:'haruno_parent',onlineImg:'https://thicc.mywaifulist.moe/waifus/7661/b33d9c7a85df8fd6428b4bba51cd817af919461ecd172d39bdb06d4e2e4a4bed_thumb.jpeg',localImg:'haruno_miyuki',bday:'',bmonth:'',byear:'1963',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'haruno_parent',gender:'',partners:'',mid:'',fid:'',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'himes_parent',gender:'',partners:'',mid:'',fid:'haruno_parent',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2006</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Haruno',gname:'Hime',id:'haruno_hime',gender:'female',partners:'',mid:'',fid:'himes_parent',onlineImg:'https://1.bp.blogspot.com/-8ctzJMuOWlw/U6wu3P-exSI/AAAAAAAAAi8/aFDHVrJGAGQ/s1600/hime.png',localImg:'haruno_hime',bday:'12',bmonth:'5',byear:'2006',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'',gname:'',id:'aoyamas_parent',gender:'',partners:'',mid:'',fid:'haruno_parent',onlineImg:'',localImg:'',bday:'',bmonth:'',byear:'',dday:'',dmonth:'',dyear:''},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1998</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>{fname:'Aoyama',gname:'Midori',id:'aoyama_midori',gender:'female',partners:'',mid:'',fid:'aoyamas_parent',onlineImg:'https://pbs.twimg.com/media/E2e-7sAXIAwR461.jpg',localImg:'aoyama_midori',bday:'27',bmonth:'10',byear:'1998',dday:'',dmonth:'',dyear:''},</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
